--- a/DSU_FOP_Data/Fundamentals_of_program(B3 and B4)_B3 and B4/timediff.xlsx
+++ b/DSU_FOP_Data/Fundamentals_of_program(B3 and B4)_B3 and B4/timediff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
   <si>
     <t>Geethesh Chowdary</t>
   </si>
@@ -22,12 +22,18 @@
     <t>Activity4</t>
   </si>
   <si>
+    <t>0:00:00</t>
+  </si>
+  <si>
     <t>Syed Hannan</t>
   </si>
   <si>
     <t>Activity3</t>
   </si>
   <si>
+    <t>0:03:44</t>
+  </si>
+  <si>
     <t>0:01:08</t>
   </si>
   <si>
@@ -52,6 +58,9 @@
     <t>Rashmi Auradkar</t>
   </si>
   <si>
+    <t>0:01:22</t>
+  </si>
+  <si>
     <t>0:00:52</t>
   </si>
   <si>
@@ -61,7 +70,7 @@
     <t>Khushi Chirchi</t>
   </si>
   <si>
-    <t>18:24:39</t>
+    <t>0:09:22</t>
   </si>
   <si>
     <t>0:03:02</t>
@@ -88,9 +97,6 @@
     <t>0:02:24</t>
   </si>
   <si>
-    <t>2:31:03</t>
-  </si>
-  <si>
     <t>Abhishek H</t>
   </si>
   <si>
@@ -106,12 +112,18 @@
     <t>Vandana W M</t>
   </si>
   <si>
+    <t>0:08:38</t>
+  </si>
+  <si>
     <t>0:03:06</t>
   </si>
   <si>
     <t>0:02:31</t>
   </si>
   <si>
+    <t>0:47:38</t>
+  </si>
+  <si>
     <t>0:04:12</t>
   </si>
   <si>
@@ -121,9 +133,6 @@
     <t>0:02:29</t>
   </si>
   <si>
-    <t>2:30:50</t>
-  </si>
-  <si>
     <t>0:01:29</t>
   </si>
   <si>
@@ -137,6 +146,9 @@
   </si>
   <si>
     <t>0:02:43</t>
+  </si>
+  <si>
+    <t>0:03:35</t>
   </si>
   <si>
     <t>0:00:34</t>
@@ -514,375 +526,456 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M21" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="N21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O21" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="S21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
